--- a/version_21/original/tables/elecciones_servicios_lead.xlsx
+++ b/version_21/original/tables/elecciones_servicios_lead.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhjs\Documents\projects\electoral_accountability\version_21\original\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2973B2C-EC74-4484-B605-0E2D7D906532}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72709B8F-3A9D-49E6-86AC-5E297DFB297D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>state</t>
   </si>
@@ -55,6 +55,102 @@
   </si>
   <si>
     <t>POB_TOT</t>
+  </si>
+  <si>
+    <t>Aguascalientes</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>Baja California Sur</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Coahuila De Zaragoza</t>
+  </si>
+  <si>
+    <t>Colima</t>
+  </si>
+  <si>
+    <t>Chiapas</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Ciudad De México</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>Guanajuato</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Michoacán De Ocampo</t>
+  </si>
+  <si>
+    <t>Morelos</t>
+  </si>
+  <si>
+    <t>Nayarit</t>
+  </si>
+  <si>
+    <t>Nuevo León</t>
+  </si>
+  <si>
+    <t>Oaxaca</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t>Quintana Roo</t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Sinaloa</t>
+  </si>
+  <si>
+    <t>Sonora</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>Tamaulipas</t>
+  </si>
+  <si>
+    <t>Tlaxcala</t>
+  </si>
+  <si>
+    <t>Veracruz De Ignacio De La Llave</t>
+  </si>
+  <si>
+    <t>Yucatán</t>
+  </si>
+  <si>
+    <t>Zacatecas</t>
   </si>
 </sst>
 </file>
@@ -88,12 +184,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +219,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,15 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,6 +619,9 @@
       </c>
       <c r="H2">
         <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
       </c>
       <c r="J2" s="4">
         <f>C2/$B2</f>
@@ -539,8 +647,12 @@
         <f>H2/$B2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="5">
+        <f>AVERAGE(K2:O2)</f>
+        <v>0.97662337662337662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -565,32 +677,39 @@
       <c r="H3">
         <v>33</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J33" si="1">C3/$B3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K33" si="2">D3/$B3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="6">
         <f t="shared" ref="L3:L33" si="3">E3/$B3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="6">
         <f t="shared" ref="M3:M33" si="4">F3/$B3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="6">
         <f t="shared" ref="N3:N33" si="5">G3/$B3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="6">
         <f t="shared" ref="O3:O33" si="6">H3/$B3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="7">
+        <f t="shared" ref="P3:P33" si="7">AVERAGE(K3:O3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -615,32 +734,39 @@
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -665,32 +791,39 @@
       <c r="H5">
         <v>72</v>
       </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
         <f t="shared" si="4"/>
         <v>0.98611111111111116</v>
       </c>
-      <c r="N5" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="7"/>
+        <v>0.99722222222222212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -715,6 +848,9 @@
       <c r="H6">
         <v>190</v>
       </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -739,8 +875,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="5">
+        <f t="shared" si="7"/>
+        <v>0.83684210526315783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -765,32 +905,39 @@
       <c r="H7">
         <v>70</v>
       </c>
-      <c r="J7" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
         <f t="shared" si="4"/>
         <v>0.98571428571428577</v>
       </c>
-      <c r="N7" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N7" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.99714285714285711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -815,6 +962,9 @@
       <c r="H8">
         <v>804</v>
       </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -839,8 +989,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="5">
+        <f t="shared" si="7"/>
+        <v>0.87786069651741294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -865,6 +1019,9 @@
       <c r="H9">
         <v>469</v>
       </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -889,8 +1046,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="5">
+        <f t="shared" si="7"/>
+        <v>0.99445628997867819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -915,6 +1076,9 @@
       <c r="H10">
         <v>64</v>
       </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>0.96969696969696972</v>
@@ -939,8 +1103,12 @@
         <f t="shared" si="6"/>
         <v>0.96969696969696972</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="5">
+        <f t="shared" si="7"/>
+        <v>0.63030303030303025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -965,6 +1133,9 @@
       <c r="H11">
         <v>273</v>
       </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -989,8 +1160,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="5">
+        <f t="shared" si="7"/>
+        <v>0.98608058608058613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1015,6 +1190,9 @@
       <c r="H12">
         <v>368</v>
       </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>0.96467391304347827</v>
@@ -1039,8 +1217,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="5">
+        <f t="shared" si="7"/>
+        <v>0.97119565217391313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1065,6 +1247,9 @@
       <c r="H13">
         <v>535</v>
       </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
       <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>0.92421441774491686</v>
@@ -1089,8 +1274,12 @@
         <f t="shared" si="6"/>
         <v>0.98890942698706097</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="5">
+        <f t="shared" si="7"/>
+        <v>0.99297597042513863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1115,6 +1304,9 @@
       <c r="H14">
         <v>504</v>
       </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>0.83531746031746035</v>
@@ -1139,8 +1331,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="5">
+        <f t="shared" si="7"/>
+        <v>0.99246031746031738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1165,6 +1361,9 @@
       <c r="H15">
         <v>993</v>
       </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1189,8 +1388,12 @@
         <f t="shared" si="6"/>
         <v>0.99798994974874367</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.90653266331658278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1215,6 +1418,9 @@
       <c r="H16">
         <v>856</v>
       </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
       <c r="J16" s="4">
         <f t="shared" si="1"/>
         <v>0.99305555555555558</v>
@@ -1239,8 +1445,12 @@
         <f t="shared" si="6"/>
         <v>0.9907407407407407</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.88310185185185186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1265,6 +1475,9 @@
       <c r="H17">
         <v>789</v>
       </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
       <c r="J17" s="4">
         <f t="shared" si="1"/>
         <v>0.86692015209125473</v>
@@ -1289,8 +1502,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="5">
+        <f t="shared" si="7"/>
+        <v>0.85652724968314331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1315,6 +1532,9 @@
       <c r="H18">
         <v>264</v>
       </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
       <c r="J18" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1339,8 +1559,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.87272727272727268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1365,32 +1589,39 @@
       <c r="H19">
         <v>140</v>
       </c>
-      <c r="J19" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1415,6 +1646,9 @@
       <c r="H20">
         <v>408</v>
       </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
       <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1439,8 +1673,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="5">
+        <f t="shared" si="7"/>
+        <v>0.73872549019607836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1465,6 +1703,9 @@
       <c r="H21">
         <v>4018</v>
       </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1489,8 +1730,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="5">
+        <f t="shared" si="7"/>
+        <v>0.84136386261821805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1515,6 +1760,9 @@
       <c r="H22">
         <v>1302</v>
       </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
       <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>0.99923195084485406</v>
@@ -1539,8 +1787,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="5">
+        <f t="shared" si="7"/>
+        <v>0.93748079877112145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1565,6 +1817,9 @@
       <c r="H23">
         <v>144</v>
       </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
       <c r="J23" s="4">
         <f t="shared" si="1"/>
         <v>0.96527777777777779</v>
@@ -1589,8 +1844,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="5">
+        <f t="shared" si="7"/>
+        <v>0.89305555555555549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1615,6 +1874,9 @@
       <c r="H24">
         <v>56</v>
       </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
       <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1639,8 +1901,12 @@
         <f t="shared" si="6"/>
         <v>0.98245614035087714</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="5">
+        <f t="shared" si="7"/>
+        <v>0.9649122807017545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1665,6 +1931,9 @@
       <c r="H25">
         <v>459</v>
       </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
       <c r="J25" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1689,8 +1958,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="5">
+        <f t="shared" si="7"/>
+        <v>0.94466230936819184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1715,6 +1988,9 @@
       <c r="H26">
         <v>126</v>
       </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1739,8 +2015,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="5">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1765,6 +2045,9 @@
       <c r="H27">
         <v>572</v>
       </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1789,8 +2072,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="5">
+        <f t="shared" si="7"/>
+        <v>0.80629370629370634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1815,32 +2102,39 @@
       <c r="H28">
         <v>135</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1865,6 +2159,9 @@
       <c r="H29">
         <v>301</v>
       </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
         <v>0.99003322259136217</v>
@@ -1889,8 +2186,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="5">
+        <f t="shared" si="7"/>
+        <v>0.96544850498338874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1915,6 +2216,9 @@
       <c r="H30">
         <v>404</v>
       </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
         <v>0.91831683168316836</v>
@@ -1939,8 +2243,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.97128712871287137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1965,6 +2273,9 @@
       <c r="H31">
         <v>1256</v>
       </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1989,8 +2300,12 @@
         <f t="shared" si="6"/>
         <v>0.99841017488076311</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" s="5">
+        <f t="shared" si="7"/>
+        <v>0.94912559618441983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2015,6 +2330,9 @@
       <c r="H32">
         <v>848</v>
       </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2039,8 +2357,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" s="5">
+        <f t="shared" si="7"/>
+        <v>0.8834905660377359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2065,6 +2387,9 @@
       <c r="H33">
         <v>397</v>
       </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
       <c r="J33" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2089,82 +2414,86 @@
         <f t="shared" si="6"/>
         <v>0.99748743718592969</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="5">
+        <f t="shared" si="7"/>
+        <v>0.98844221105527641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J34" s="2">
         <f>AVERAGE(J2:J33)</f>
         <v>0.98208557035458743</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" ref="K34:O34" si="7">AVERAGE(K2:K33)</f>
+        <f t="shared" ref="K34:O34" si="8">AVERAGE(K2:K33)</f>
         <v>0.88097389936810799</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.79959084232470434</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93418610948423519</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99905303030303028</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99767783873722138</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J35" s="3">
         <f>MEDIAN(J2:J33)</f>
         <v>1</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" ref="K35:O35" si="8">MEDIAN(K2:K33)</f>
+        <f t="shared" ref="K35:O35" si="9">MEDIAN(K2:K33)</f>
         <v>1</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98808677459324401</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96989831873552812</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J36" s="3">
         <f>MIN(J2:J33)</f>
         <v>0.83531746031746035</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" ref="K36:O36" si="9">MIN(K2:K33)</f>
+        <f t="shared" ref="K36:O36" si="10">MIN(K2:K33)</f>
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24242424242424243</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.54245283018867929</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.96969696969696972</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.96969696969696972</v>
       </c>
     </row>
